--- a/backend/app/utils/parametros/localidades.xlsx
+++ b/backend/app/utils/parametros/localidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Desktop\Richard\FPUNA\EXTENSION 2\Vitalmente\backend\app\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Desktop\Richard\FPUNA\EXTENSION 2\Vitalmente\backend\app\utils\parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6855FF-FB76-4332-A094-DA301E30A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598AE35-8F34-4725-AB69-928626DB4337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CB4EECAE-C8A0-48F1-A34D-932D8E8C65C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CB4EECAE-C8A0-48F1-A34D-932D8E8C65C2}"/>
   </bookViews>
   <sheets>
     <sheet name="PAISES" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CIUDADES" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CIUDADES!$A$1:$E$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CIUDADES!$A$1:$E$252</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAISES!$A$1:$B$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="660">
   <si>
     <t>Capital</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Cordillera</t>
   </si>
   <si>
-    <t>Guaira</t>
-  </si>
-  <si>
     <t>Caaguazú</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Canindeyú</t>
   </si>
   <si>
-    <t>Presidente Franco</t>
-  </si>
-  <si>
     <t>Alto Paraguay</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>PASO BARRETO</t>
   </si>
   <si>
-    <t>SAN PEDRO DEL YCUAMANDYYU</t>
-  </si>
-  <si>
     <t>ANTEQUERA</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>LIBERACION</t>
   </si>
   <si>
-    <t>CAACUPE</t>
-  </si>
-  <si>
     <t>ALTOS</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>NUEVA TOLEDO</t>
   </si>
   <si>
-    <t>CAAZAPA</t>
-  </si>
-  <si>
     <t>ABAI</t>
   </si>
   <si>
@@ -393,9 +378,6 @@
     <t>3 DE MAYO</t>
   </si>
   <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
     <t>BELLA VISTA</t>
   </si>
   <si>
@@ -513,9 +495,6 @@
     <t>YABEBYRY</t>
   </si>
   <si>
-    <t>PARAGUARI</t>
-  </si>
-  <si>
     <t>ACAHAY</t>
   </si>
   <si>
@@ -627,9 +606,6 @@
     <t>DR. RAUL PENA</t>
   </si>
   <si>
-    <t>AREGUA</t>
-  </si>
-  <si>
     <t>CAPIATA</t>
   </si>
   <si>
@@ -744,9 +720,6 @@
     <t>KARAPAI</t>
   </si>
   <si>
-    <t>SALTO DEL GUAIRA</t>
-  </si>
-  <si>
     <t>CORPUS CHRISTI</t>
   </si>
   <si>
@@ -807,9 +780,6 @@
     <t>GENERAL JOSE MARIA BRUGUEZ</t>
   </si>
   <si>
-    <t>MARISCAL JOSE FELIX ESTIGARRIBIA</t>
-  </si>
-  <si>
     <t>FILADELFIA</t>
   </si>
   <si>
@@ -2008,6 +1978,39 @@
   </si>
   <si>
     <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Guairá</t>
+  </si>
+  <si>
+    <t>Presidente Hayes</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DEL YCUAMANDIYÚ</t>
+  </si>
+  <si>
+    <t>CAACUPÉ</t>
+  </si>
+  <si>
+    <t>CAAZAPÁ</t>
+  </si>
+  <si>
+    <t>ENCARNACIÓN</t>
+  </si>
+  <si>
+    <t>PARAGUARÍ</t>
+  </si>
+  <si>
+    <t>AREGUÁ</t>
+  </si>
+  <si>
+    <t>SALTO DEL GUAIRÁ</t>
+  </si>
+  <si>
+    <t>NEULAND</t>
+  </si>
+  <si>
+    <t>MARISCAL JOSÉ FÉLIX ESTIGARRIBIA</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2354,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2374,21 +2377,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("INSERT INTO PAISES (NOMBRE, CAPITAL) VALUES ('",UPPER(A2),"','",UPPER(B2),"');")</f>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">_xlfn.CONCAT("INSERT INTO PAISES (NOMBRE, CAPITAL) VALUES ('",UPPER(A3),"','",UPPER(B3),"');")</f>
@@ -2409,10 +2412,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2421,10 +2424,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2433,10 +2436,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2445,10 +2448,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2457,10 +2460,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2481,10 +2484,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2493,10 +2496,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2505,10 +2508,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2517,10 +2520,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2529,10 +2532,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2541,10 +2544,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2553,10 +2556,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -2565,10 +2568,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2577,10 +2580,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2589,10 +2592,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2601,10 +2604,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2613,10 +2616,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2625,10 +2628,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -2637,10 +2640,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2649,10 +2652,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -2661,10 +2664,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2673,10 +2676,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -2685,10 +2688,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -2697,10 +2700,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -2709,10 +2712,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -2721,10 +2724,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -2733,10 +2736,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -2745,10 +2748,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -2757,10 +2760,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -2769,10 +2772,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -2781,10 +2784,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -2793,10 +2796,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -2805,10 +2808,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -2817,10 +2820,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -2829,10 +2832,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -2841,10 +2844,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -2853,10 +2856,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -2865,10 +2868,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -2877,10 +2880,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -2889,10 +2892,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -2901,10 +2904,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2913,10 +2916,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -2925,10 +2928,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -2937,10 +2940,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -2949,10 +2952,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -2961,10 +2964,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -2973,10 +2976,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -2985,10 +2988,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -2997,10 +3000,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -3009,10 +3012,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -3021,10 +3024,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -3033,10 +3036,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -3045,10 +3048,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -3057,10 +3060,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -3069,10 +3072,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -3081,10 +3084,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -3093,10 +3096,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -3105,10 +3108,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -3117,10 +3120,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -3129,10 +3132,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -3141,10 +3144,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -3153,10 +3156,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
@@ -3165,10 +3168,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">_xlfn.CONCAT("INSERT INTO PAISES (NOMBRE, CAPITAL) VALUES ('",UPPER(A67),"','",UPPER(B67),"');")</f>
@@ -3177,10 +3180,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -3189,10 +3192,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -3201,10 +3204,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -3213,10 +3216,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -3225,10 +3228,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B72" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -3237,10 +3240,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -3249,10 +3252,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -3261,10 +3264,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -3273,10 +3276,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -3285,10 +3288,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -3297,10 +3300,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -3309,10 +3312,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -3321,10 +3324,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -3333,10 +3336,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B81" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -3345,10 +3348,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B82" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -3357,10 +3360,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B83" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -3369,10 +3372,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -3381,10 +3384,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -3393,10 +3396,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -3405,10 +3408,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B87" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -3417,10 +3420,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -3429,10 +3432,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B89" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -3441,10 +3444,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -3453,10 +3456,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -3465,10 +3468,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B92" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -3477,10 +3480,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B93" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -3489,10 +3492,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B94" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -3501,10 +3504,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B95" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -3513,10 +3516,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B96" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -3525,10 +3528,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B97" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -3537,10 +3540,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B98" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -3549,10 +3552,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B99" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -3561,10 +3564,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B100" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -3573,10 +3576,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B101" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -3585,10 +3588,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B102" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -3597,10 +3600,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B103" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -3609,10 +3612,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B104" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -3621,10 +3624,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B105" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -3633,10 +3636,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B106" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -3645,10 +3648,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B107" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -3657,10 +3660,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B108" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -3669,10 +3672,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B109" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -3681,10 +3684,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B110" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -3693,10 +3696,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B111" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -3705,10 +3708,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B112" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -3717,10 +3720,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B113" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -3729,10 +3732,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -3741,10 +3744,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B115" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -3753,10 +3756,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B116" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -3765,10 +3768,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B117" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B118" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
@@ -3789,10 +3792,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B119" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
@@ -3801,10 +3804,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B120" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -3813,10 +3816,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B121" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -3825,10 +3828,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B122" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -3837,10 +3840,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -3849,10 +3852,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B124" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -3861,10 +3864,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -3873,10 +3876,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B126" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B127" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -3897,10 +3900,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B128" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -3909,10 +3912,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B129" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -3921,10 +3924,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B130" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -3933,10 +3936,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B131" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C194" si="2">_xlfn.CONCAT("INSERT INTO PAISES (NOMBRE, CAPITAL) VALUES ('",UPPER(A131),"','",UPPER(B131),"');")</f>
@@ -3945,10 +3948,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B132" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B133" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
@@ -3969,10 +3972,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B134" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
@@ -3981,10 +3984,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B135" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -3993,10 +3996,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B136" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
@@ -4005,10 +4008,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B137" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
@@ -4017,10 +4020,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B138" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
@@ -4029,10 +4032,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B139" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -4041,10 +4044,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B140" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -4053,10 +4056,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B141" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -4065,10 +4068,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B142" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
@@ -4077,10 +4080,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B143" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
@@ -4089,10 +4092,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B144" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
@@ -4101,10 +4104,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B145" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
@@ -4113,10 +4116,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B146" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
@@ -4125,10 +4128,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B147" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B148" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -4149,10 +4152,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -4161,10 +4164,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B150" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
@@ -4173,10 +4176,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B151" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
@@ -4185,10 +4188,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B152" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -4197,10 +4200,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B153" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -4209,10 +4212,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B154" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
@@ -4221,10 +4224,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B155" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B156" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -4245,10 +4248,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B157" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -4257,10 +4260,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B158" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -4269,10 +4272,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B159" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -4281,10 +4284,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B160" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
@@ -4293,10 +4296,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B161" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
@@ -4305,10 +4308,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B162" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
@@ -4317,10 +4320,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B163" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -4329,10 +4332,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B164" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
@@ -4341,10 +4344,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B165" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
@@ -4353,10 +4356,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B166" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
@@ -4365,10 +4368,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B167" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -4377,10 +4380,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B168" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -4389,10 +4392,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B169" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
@@ -4401,10 +4404,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B170" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
@@ -4413,10 +4416,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B171" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -4425,10 +4428,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B172" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
@@ -4437,10 +4440,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B173" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
@@ -4449,10 +4452,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B174" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
@@ -4461,10 +4464,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B175" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
@@ -4473,10 +4476,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B176" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -4485,10 +4488,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B177" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -4497,10 +4500,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B178" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -4509,10 +4512,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B179" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
@@ -4521,10 +4524,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B180" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
@@ -4533,10 +4536,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B181" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -4545,10 +4548,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B182" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
@@ -4557,10 +4560,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B183" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
@@ -4569,10 +4572,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B184" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
@@ -4581,10 +4584,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B185" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
@@ -4593,10 +4596,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B186" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
@@ -4605,10 +4608,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B187" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
@@ -4617,10 +4620,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B188" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
@@ -4629,10 +4632,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B189" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
@@ -4641,10 +4644,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B190" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
@@ -4653,10 +4656,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B191" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
@@ -4665,10 +4668,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B192" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
@@ -4677,10 +4680,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B193" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
@@ -4689,10 +4692,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B194" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="2"/>
@@ -4701,10 +4704,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B195" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" ref="C195:C197" si="3">_xlfn.CONCAT("INSERT INTO PAISES (NOMBRE, CAPITAL) VALUES ('",UPPER(A195),"','",UPPER(B195),"');")</f>
@@ -4713,10 +4716,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B196" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
@@ -4725,10 +4728,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B197" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
@@ -4745,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FE941-8BA4-4402-AEB8-625C64D9FFED}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4758,13 +4761,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4787,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C19" si="0">_xlfn.CONCAT("INSERT INTO DEPARTAMENTOS VALUES (",B3,", 139, '",UPPER(A3),"');")</f>
+        <f t="shared" ref="C3:C17" si="0">_xlfn.CONCAT("INSERT INTO DEPARTAMENTOS VALUES (",B3,", 139, '",UPPER(A3),"');")</f>
         <v>INSERT INTO DEPARTAMENTOS VALUES (1, 139, 'CONCEPCIÓN');</v>
       </c>
     </row>
@@ -4817,19 +4820,19 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>649</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DEPARTAMENTOS VALUES (4, 139, 'GUAIRA');</v>
+        <v>INSERT INTO DEPARTAMENTOS VALUES (4, 139, 'GUAIRÁ');</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -4853,7 +4856,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -4877,7 +4880,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -4913,7 +4916,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -4925,7 +4928,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -4949,38 +4952,38 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DEPARTAMENTOS VALUES (15, 139, 'PRESIDENTE FRANCO');</v>
+        <v>INSERT INTO DEPARTAMENTOS VALUES (15, 139, 'PRESIDENTE HAYES');</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO DEPARTAMENTOS VALUES (16, 139, 'ALTO PARAGUAY');</v>
+        <f>_xlfn.CONCAT("INSERT INTO DEPARTAMENTOS VALUES (",B18,", 139, '",UPPER(A18),"');")</f>
+        <v>INSERT INTO DEPARTAMENTOS VALUES (16, 139, 'BOQUERÓN');</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO DEPARTAMENTOS VALUES (17, 139, 'BOQUERÓN');</v>
+        <f>_xlfn.CONCAT("INSERT INTO DEPARTAMENTOS VALUES (",B19,", 139, '",UPPER(A19),"');")</f>
+        <v>INSERT INTO DEPARTAMENTOS VALUES (17, 139, 'ALTO PARAGUAY');</v>
       </c>
     </row>
   </sheetData>
@@ -4990,10 +4993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBEE282-D5D1-41D1-9C99-74680D9A1FD6}">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,19 +5010,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -5033,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A2,",",B2,",",C2,",'",D2,"');")</f>
@@ -5051,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A3,",",B3,",",C3,",'",D3,"');")</f>
@@ -5069,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -5087,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -5105,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -5123,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -5141,7 +5144,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -5159,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -5177,7 +5180,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -5195,7 +5198,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -5213,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -5231,7 +5234,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -5249,11 +5252,11 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>651</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CIUDADES VALUES(201,2,1,'SAN PEDRO DEL YCUAMANDYYU');</v>
+        <v>INSERT INTO CIUDADES VALUES(201,2,1,'SAN PEDRO DEL YCUAMANDIYÚ');</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5267,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -5303,7 +5306,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -5321,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -5339,7 +5342,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -5357,7 +5360,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -5375,7 +5378,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -5393,7 +5396,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -5411,7 +5414,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -5429,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -5447,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -5465,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -5483,7 +5486,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -5501,7 +5504,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -5519,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -5537,7 +5540,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -5555,7 +5558,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -5573,7 +5576,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -5591,7 +5594,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -5609,11 +5612,11 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>652</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CIUDADES VALUES(301,3,1,'CAACUPE');</v>
+        <v>INSERT INTO CIUDADES VALUES(301,3,1,'CAACUPÉ');</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -5627,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -5645,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -5663,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -5681,7 +5684,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -5699,7 +5702,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -5717,7 +5720,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -5735,7 +5738,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -5753,7 +5756,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -5771,7 +5774,7 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -5789,7 +5792,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -5807,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -5825,7 +5828,7 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -5843,7 +5846,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -5861,7 +5864,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -5879,7 +5882,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -5897,7 +5900,7 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -5915,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -5933,7 +5936,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -5951,7 +5954,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -5969,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -5987,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -6005,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -6023,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -6041,7 +6044,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -6059,7 +6062,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -6077,7 +6080,7 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -6095,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -6113,7 +6116,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -6131,7 +6134,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -6149,7 +6152,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -6167,7 +6170,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -6185,7 +6188,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -6203,7 +6206,7 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A67,",",B67,",",C67,",'",D67,"');")</f>
@@ -6221,7 +6224,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -6239,7 +6242,7 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -6257,7 +6260,7 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
@@ -6275,7 +6278,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
@@ -6293,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
@@ -6311,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
@@ -6329,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
@@ -6347,7 +6350,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
@@ -6365,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
@@ -6383,7 +6386,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
@@ -6401,7 +6404,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
@@ -6419,7 +6422,7 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
@@ -6437,7 +6440,7 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
@@ -6455,7 +6458,7 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
@@ -6473,7 +6476,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
@@ -6491,7 +6494,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
@@ -6509,7 +6512,7 @@
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
@@ -6527,7 +6530,7 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
@@ -6545,7 +6548,7 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
@@ -6563,7 +6566,7 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
@@ -6581,7 +6584,7 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
@@ -6599,7 +6602,7 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
@@ -6617,7 +6620,7 @@
         <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
@@ -6635,7 +6638,7 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
@@ -6653,7 +6656,7 @@
         <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
@@ -6671,7 +6674,7 @@
         <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
@@ -6689,11 +6692,11 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>653</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO CIUDADES VALUES(601,6,1,'CAAZAPA');</v>
+        <v>INSERT INTO CIUDADES VALUES(601,6,1,'CAAZAPÁ');</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -6707,7 +6710,7 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
@@ -6725,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
@@ -6743,7 +6746,7 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
@@ -6761,7 +6764,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
@@ -6779,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
@@ -6797,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
@@ -6815,7 +6818,7 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
@@ -6833,7 +6836,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
@@ -6851,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
@@ -6869,7 +6872,7 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
@@ -6887,11 +6890,11 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO CIUDADES VALUES(701,7,1,'ENCARNACION');</v>
+        <v>INSERT INTO CIUDADES VALUES(701,7,1,'ENCARNACIÓN');</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -6905,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
@@ -6923,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
@@ -6941,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
@@ -6959,7 +6962,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
@@ -6977,7 +6980,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
@@ -6995,7 +6998,7 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
@@ -7013,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
@@ -7031,7 +7034,7 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
@@ -7049,7 +7052,7 @@
         <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
@@ -7067,7 +7070,7 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
@@ -7085,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
@@ -7103,7 +7106,7 @@
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
@@ -7121,7 +7124,7 @@
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
@@ -7139,7 +7142,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
@@ -7157,7 +7160,7 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
@@ -7175,7 +7178,7 @@
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
@@ -7193,7 +7196,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
@@ -7211,7 +7214,7 @@
         <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
@@ -7229,7 +7232,7 @@
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
@@ -7247,7 +7250,7 @@
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
@@ -7265,7 +7268,7 @@
         <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
@@ -7283,7 +7286,7 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
@@ -7301,7 +7304,7 @@
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
@@ -7319,7 +7322,7 @@
         <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
@@ -7337,7 +7340,7 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
@@ -7355,7 +7358,7 @@
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ref="E131:E194" si="2">_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A131,",",B131,",",C131,",'",D131,"');")</f>
@@ -7373,7 +7376,7 @@
         <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
@@ -7391,7 +7394,7 @@
         <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
@@ -7409,7 +7412,7 @@
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
@@ -7427,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
@@ -7445,7 +7448,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
@@ -7463,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
@@ -7481,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
@@ -7499,7 +7502,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
@@ -7517,7 +7520,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
@@ -7535,7 +7538,7 @@
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
@@ -7553,7 +7556,7 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
@@ -7571,7 +7574,7 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
@@ -7589,7 +7592,7 @@
         <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
@@ -7607,11 +7610,11 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>655</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO CIUDADES VALUES(901,9,1,'PARAGUARI');</v>
+        <v>INSERT INTO CIUDADES VALUES(901,9,1,'PARAGUARÍ');</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -7625,7 +7628,7 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
@@ -7643,7 +7646,7 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
@@ -7661,7 +7664,7 @@
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
@@ -7679,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
@@ -7697,7 +7700,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
@@ -7715,7 +7718,7 @@
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
@@ -7733,7 +7736,7 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="2"/>
@@ -7751,7 +7754,7 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="2"/>
@@ -7769,7 +7772,7 @@
         <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="2"/>
@@ -7787,7 +7790,7 @@
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
@@ -7805,7 +7808,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="2"/>
@@ -7823,7 +7826,7 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
@@ -7841,7 +7844,7 @@
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="2"/>
@@ -7859,7 +7862,7 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="2"/>
@@ -7877,7 +7880,7 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
@@ -7895,7 +7898,7 @@
         <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
@@ -7913,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="2"/>
@@ -7931,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="2"/>
@@ -7949,7 +7952,7 @@
         <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="2"/>
@@ -7967,7 +7970,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
@@ -7985,7 +7988,7 @@
         <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
@@ -8003,7 +8006,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="2"/>
@@ -8021,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
@@ -8039,7 +8042,7 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
@@ -8057,7 +8060,7 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
@@ -8075,7 +8078,7 @@
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
@@ -8093,7 +8096,7 @@
         <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="2"/>
@@ -8111,7 +8114,7 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="2"/>
@@ -8129,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="D174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="2"/>
@@ -8147,7 +8150,7 @@
         <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="2"/>
@@ -8165,7 +8168,7 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="2"/>
@@ -8183,7 +8186,7 @@
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="2"/>
@@ -8201,7 +8204,7 @@
         <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="2"/>
@@ -8219,7 +8222,7 @@
         <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
@@ -8237,7 +8240,7 @@
         <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="2"/>
@@ -8255,7 +8258,7 @@
         <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="2"/>
@@ -8273,7 +8276,7 @@
         <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="2"/>
@@ -8291,7 +8294,7 @@
         <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="2"/>
@@ -8309,11 +8312,11 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>198</v>
+        <v>656</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO CIUDADES VALUES(1101,11,1,'AREGUA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1101,11,1,'AREGUÁ');</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -8327,7 +8330,7 @@
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="2"/>
@@ -8345,7 +8348,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="2"/>
@@ -8363,7 +8366,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="2"/>
@@ -8381,7 +8384,7 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="2"/>
@@ -8399,7 +8402,7 @@
         <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="2"/>
@@ -8417,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="2"/>
@@ -8435,7 +8438,7 @@
         <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="2"/>
@@ -8453,7 +8456,7 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="2"/>
@@ -8471,7 +8474,7 @@
         <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
@@ -8489,7 +8492,7 @@
         <v>11</v>
       </c>
       <c r="D194" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
@@ -8507,10 +8510,10 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E251" si="3">_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A195,",",B195,",",C195,",'",D195,"');")</f>
+        <f t="shared" ref="E195:E252" si="3">_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A195,",",B195,",",C195,",'",D195,"');")</f>
         <v>INSERT INTO CIUDADES VALUES(1112,11,12,'NEMBY');</v>
       </c>
     </row>
@@ -8525,7 +8528,7 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="3"/>
@@ -8543,7 +8546,7 @@
         <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
@@ -8561,7 +8564,7 @@
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
@@ -8579,7 +8582,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
@@ -8597,7 +8600,7 @@
         <v>17</v>
       </c>
       <c r="D200" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
@@ -8615,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
@@ -8633,7 +8636,7 @@
         <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
@@ -8651,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
@@ -8669,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
@@ -8687,7 +8690,7 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
@@ -8705,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
@@ -8723,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
@@ -8741,7 +8744,7 @@
         <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
@@ -8759,7 +8762,7 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
@@ -8777,7 +8780,7 @@
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="3"/>
@@ -8795,7 +8798,7 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="3"/>
@@ -8813,7 +8816,7 @@
         <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="3"/>
@@ -8831,7 +8834,7 @@
         <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="3"/>
@@ -8849,7 +8852,7 @@
         <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="3"/>
@@ -8867,7 +8870,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="3"/>
@@ -8885,7 +8888,7 @@
         <v>14</v>
       </c>
       <c r="D216" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="3"/>
@@ -8903,7 +8906,7 @@
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="3"/>
@@ -8921,7 +8924,7 @@
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
@@ -8939,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="3"/>
@@ -8957,7 +8960,7 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="3"/>
@@ -8975,7 +8978,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="3"/>
@@ -8993,7 +8996,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="3"/>
@@ -9011,7 +9014,7 @@
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="3"/>
@@ -9029,11 +9032,11 @@
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>237</v>
+        <v>657</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1401,14,1,'SALTO DEL GUAIRA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1401,14,1,'SALTO DEL GUAIRÁ');</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -9047,7 +9050,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="3"/>
@@ -9065,7 +9068,7 @@
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="3"/>
@@ -9083,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="3"/>
@@ -9101,7 +9104,7 @@
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="3"/>
@@ -9119,7 +9122,7 @@
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="3"/>
@@ -9137,7 +9140,7 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="3"/>
@@ -9155,7 +9158,7 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="3"/>
@@ -9173,7 +9176,7 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="3"/>
@@ -9191,7 +9194,7 @@
         <v>10</v>
       </c>
       <c r="D233" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="3"/>
@@ -9209,7 +9212,7 @@
         <v>11</v>
       </c>
       <c r="D234" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="3"/>
@@ -9227,7 +9230,7 @@
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="3"/>
@@ -9245,7 +9248,7 @@
         <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="3"/>
@@ -9254,276 +9257,294 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B237">
         <v>15</v>
       </c>
       <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>243</v>
+      </c>
+      <c r="E237" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO CIUDADES VALUES(",A237,",",B237,",",C237,",'",D237,"');")</f>
+        <v>INSERT INTO CIUDADES VALUES(1501,15,1,'VILLA HAYES');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1502</v>
+      </c>
+      <c r="B238">
+        <v>15</v>
+      </c>
+      <c r="C238">
         <v>2</v>
       </c>
-      <c r="D237" t="s">
-        <v>250</v>
-      </c>
-      <c r="E237" t="str">
+      <c r="D238" t="s">
+        <v>241</v>
+      </c>
+      <c r="E238" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CIUDADES VALUES(1502,15,2,'BENJAMIN ACEVAL');</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
         <v>1503</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>15</v>
       </c>
-      <c r="C238">
+      <c r="C239">
         <v>3</v>
       </c>
-      <c r="D238" t="s">
-        <v>251</v>
-      </c>
-      <c r="E238" t="str">
+      <c r="D239" t="s">
+        <v>242</v>
+      </c>
+      <c r="E239" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CIUDADES VALUES(1503,15,3,'PUERTO PINASCO');</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>1504</v>
-      </c>
-      <c r="B239">
-        <v>15</v>
-      </c>
-      <c r="C239">
-        <v>4</v>
-      </c>
-      <c r="D239" t="s">
-        <v>252</v>
-      </c>
-      <c r="E239" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1504,15,4,'VILLA HAYES');</v>
-      </c>
-    </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B240">
         <v>15</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1505,15,5,'NANAWA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1504,15,4,'NANAWA');</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B241">
         <v>15</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1506,15,6,'JOSE FALCON');</v>
+        <v>INSERT INTO CIUDADES VALUES(1505,15,5,'JOSE FALCON');</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B242">
         <v>15</v>
       </c>
       <c r="C242">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1507,15,7,'TTE. 1° MANUEL IRALA FERNANDEZ');</v>
+        <v>INSERT INTO CIUDADES VALUES(1506,15,6,'TTE. 1° MANUEL IRALA FERNANDEZ');</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B243">
         <v>15</v>
       </c>
       <c r="C243">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1508,15,8,'TENIENTE ESTEBAN MARTINEZ');</v>
+        <v>INSERT INTO CIUDADES VALUES(1507,15,7,'TENIENTE ESTEBAN MARTINEZ');</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B244">
         <v>15</v>
       </c>
       <c r="C244">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1509,15,9,'GENERAL JOSE MARIA BRUGUEZ');</v>
+        <v>INSERT INTO CIUDADES VALUES(1508,15,8,'GENERAL JOSE MARIA BRUGUEZ');</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B245">
         <v>16</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1602,16,2,'MARISCAL JOSE FELIX ESTIGARRIBIA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1601,16,1,'FILADELFIA');</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B246">
         <v>16</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>259</v>
+        <v>659</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1604,16,4,'FILADELFIA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1602,16,2,'MARISCAL JOSÉ FÉLIX ESTIGARRIBIA');</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B247">
         <v>16</v>
       </c>
       <c r="C247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1605,16,5,'LOMA PLATA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1603,16,3,'LOMA PLATA');</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B248">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>261</v>
+        <v>658</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1701,17,1,'FUERTE OLIMPO');</v>
+        <v>INSERT INTO CIUDADES VALUES(1604,16,4,'NEULAND');</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B249">
         <v>17</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1702,17,2,'PUERTO CASADO');</v>
+        <v>INSERT INTO CIUDADES VALUES(1701,17,1,'FUERTE OLIMPO');</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B250">
         <v>17</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO CIUDADES VALUES(1704,17,4,'BAHIA NEGRA');</v>
+        <v>INSERT INTO CIUDADES VALUES(1702,17,2,'PUERTO CASADO');</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B251">
         <v>17</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="3"/>
+        <v>INSERT INTO CIUDADES VALUES(1704,17,4,'BAHIA NEGRA');</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1705</v>
+      </c>
+      <c r="B252">
+        <v>17</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s">
+        <v>254</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO CIUDADES VALUES(1705,17,5,'CARMELO PERALTA');</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E251" xr:uid="{DCBEE282-D5D1-41D1-9C99-74680D9A1FD6}"/>
+  <autoFilter ref="A1:E252" xr:uid="{DCBEE282-D5D1-41D1-9C99-74680D9A1FD6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>